--- a/sem1/CО-ИП-21-2.xlsx
+++ b/sem1/CО-ИП-21-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29423F4-EE3B-8F4C-B589-0EB41A1C8021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21987CA9-E007-D84A-BF3F-C7A2AACD6B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Радченко Данил Сергеевич</t>
   </si>
   <si>
-    <t>Малкова Алиса</t>
-  </si>
-  <si>
     <t>Кодинцев Никита Владимирович</t>
   </si>
   <si>
@@ -209,6 +206,12 @@
   </si>
   <si>
     <t>Исмаилов Руслан</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,6 +528,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,7 +1765,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1778,8 +1787,12 @@
       <c r="C1" s="3">
         <v>45170</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="3">
+        <v>45173</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45177</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1821,8 +1834,12 @@
       <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1864,8 +1881,12 @@
       <c r="C3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1907,8 +1928,12 @@
       <c r="C4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1950,8 +1975,12 @@
       <c r="C5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1993,8 +2022,12 @@
       <c r="C6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2036,8 +2069,12 @@
       <c r="C7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2079,8 +2116,12 @@
       <c r="C8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2122,8 +2163,12 @@
       <c r="C9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2165,8 +2210,12 @@
       <c r="C10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2208,8 +2257,12 @@
       <c r="C11" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2251,8 +2304,12 @@
       <c r="C12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2294,8 +2351,12 @@
       <c r="C13" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -2337,8 +2398,12 @@
       <c r="C14" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -2375,13 +2440,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -2472,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C17" sqref="C1:N17"/>
+    <sheetView showGridLines="0" zoomScale="187" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2496,7 +2565,9 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -2521,7 +2592,9 @@
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="52" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -2571,7 +2644,9 @@
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="20"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -2646,7 +2721,9 @@
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -2696,7 +2773,9 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="52" t="s">
+        <v>3</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -2721,7 +2800,9 @@
       <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19"/>
@@ -2746,7 +2827,9 @@
       <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -2771,7 +2854,9 @@
       <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -2796,7 +2881,9 @@
       <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -2841,12 +2928,14 @@
     </row>
     <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -2865,12 +2954,6 @@
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>6</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2916,7 +2999,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2938,8 +3021,12 @@
       <c r="C1" s="3">
         <v>45170</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="3">
+        <v>45175</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45177</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2975,13 +3062,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3017,13 +3108,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3059,13 +3154,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3101,13 +3200,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3143,13 +3246,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -3185,13 +3292,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3227,13 +3338,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3269,13 +3384,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3311,13 +3430,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3353,13 +3476,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -3395,13 +3522,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3437,13 +3568,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3532,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3559,7 +3694,9 @@
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -3575,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3593,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -3611,9 +3748,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -3629,9 +3768,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -3661,7 +3802,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -3679,7 +3820,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3697,9 +3838,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -3715,9 +3858,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19"/>
@@ -3733,9 +3878,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -3751,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -3769,9 +3916,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -3787,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19"/>

--- a/sem1/CО-ИП-21-2.xlsx
+++ b/sem1/CО-ИП-21-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21987CA9-E007-D84A-BF3F-C7A2AACD6B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28B44D-E467-9C41-9BE1-F37330CB82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -1763,9 +1763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1793,8 +1793,12 @@
       <c r="E1" s="3">
         <v>45177</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="3">
+        <v>45180</v>
+      </c>
+      <c r="G1" s="3">
+        <v>45184</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1840,8 +1844,12 @@
       <c r="E2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1887,8 +1895,12 @@
       <c r="E3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1934,8 +1946,12 @@
       <c r="E4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1981,8 +1997,12 @@
       <c r="E5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -2028,8 +2048,12 @@
       <c r="E6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -2073,10 +2097,14 @@
         <v>3</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -2122,8 +2150,12 @@
       <c r="E8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2169,8 +2201,12 @@
       <c r="E9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -2216,8 +2252,12 @@
       <c r="E10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -2263,8 +2303,12 @@
       <c r="E11" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2310,8 +2354,12 @@
       <c r="E12" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -2357,8 +2405,12 @@
       <c r="E13" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -2404,8 +2456,12 @@
       <c r="E14" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2451,8 +2507,12 @@
       <c r="E15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2997,9 +3057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3027,8 +3087,12 @@
       <c r="E1" s="3">
         <v>45177</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="3">
+        <v>45183</v>
+      </c>
+      <c r="G1" s="3">
+        <v>45184</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -3073,8 +3137,12 @@
       <c r="E2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3119,8 +3187,12 @@
       <c r="E3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3165,8 +3237,12 @@
       <c r="E4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3211,8 +3287,12 @@
       <c r="E5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3257,8 +3337,12 @@
       <c r="E6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3303,8 +3387,12 @@
       <c r="E7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -3349,8 +3437,12 @@
       <c r="E8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -3395,8 +3487,12 @@
       <c r="E9" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3441,8 +3537,12 @@
       <c r="E10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -3487,8 +3587,12 @@
       <c r="E11" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -3533,8 +3637,12 @@
       <c r="E12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -3579,8 +3687,12 @@
       <c r="E13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
